--- a/DataDrivenFrameworkProject/src/test/resources/Projectexcel.xlsx
+++ b/DataDrivenFrameworkProject/src/test/resources/Projectexcel.xlsx
@@ -42,7 +42,7 @@
     <t>wwxxww</t>
   </si>
   <si>
-    <t>jsfngfgh2fgfj12@gamil.com</t>
+    <t>jsfn2fgfff512@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -397,7 +397,7 @@
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
